--- a/data/pca/factorExposure/factorExposure_2016-01-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-01-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01998548851925799</v>
+        <v>0.01918672646755256</v>
       </c>
       <c r="C2">
-        <v>0.04488432943425628</v>
+        <v>0.04008859449924116</v>
       </c>
       <c r="D2">
-        <v>-0.1039093108521156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1196865006765793</v>
+      </c>
+      <c r="E2">
+        <v>-0.0878143271101748</v>
+      </c>
+      <c r="F2">
+        <v>-0.004235191028473581</v>
+      </c>
+      <c r="G2">
+        <v>0.02741884162931775</v>
+      </c>
+      <c r="H2">
+        <v>0.1007248283776667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02052021959955225</v>
+        <v>0.01209114960627506</v>
       </c>
       <c r="C3">
-        <v>0.06927302746726272</v>
+        <v>0.0380320818351134</v>
       </c>
       <c r="D3">
-        <v>-0.1655727639703015</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.08952788784691561</v>
+      </c>
+      <c r="E3">
+        <v>-0.09116952494554884</v>
+      </c>
+      <c r="F3">
+        <v>-0.02460734851551195</v>
+      </c>
+      <c r="G3">
+        <v>0.07776038611676334</v>
+      </c>
+      <c r="H3">
+        <v>0.05721085617506339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0501887071001141</v>
+        <v>0.05534449535973962</v>
       </c>
       <c r="C4">
-        <v>0.05641714180851062</v>
+        <v>0.06821690982184055</v>
       </c>
       <c r="D4">
-        <v>-0.1279573867949071</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1321677306856932</v>
+      </c>
+      <c r="E4">
+        <v>-0.05303476103529772</v>
+      </c>
+      <c r="F4">
+        <v>-0.01605767017716361</v>
+      </c>
+      <c r="G4">
+        <v>-0.02266224140936572</v>
+      </c>
+      <c r="H4">
+        <v>-0.03986506633914557</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04173808798359074</v>
+        <v>0.04038456687070203</v>
       </c>
       <c r="C6">
-        <v>0.03020144258629711</v>
+        <v>0.03011065471618848</v>
       </c>
       <c r="D6">
-        <v>-0.1198374541085376</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1260061153328493</v>
+      </c>
+      <c r="E6">
+        <v>-0.04348823909068213</v>
+      </c>
+      <c r="F6">
+        <v>-0.01507895919286479</v>
+      </c>
+      <c r="G6">
+        <v>0.01216488164128433</v>
+      </c>
+      <c r="H6">
+        <v>0.007744316738121267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02334170327846417</v>
+        <v>0.01756465169263315</v>
       </c>
       <c r="C7">
-        <v>0.02530316884228916</v>
+        <v>0.03457971488416771</v>
       </c>
       <c r="D7">
-        <v>-0.09234177943263686</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09454374841504405</v>
+      </c>
+      <c r="E7">
+        <v>-0.04564726894137027</v>
+      </c>
+      <c r="F7">
+        <v>-0.01256855561424493</v>
+      </c>
+      <c r="G7">
+        <v>-0.05387904296044973</v>
+      </c>
+      <c r="H7">
+        <v>0.08479775720831827</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.00641090837700683</v>
+        <v>0.007388619782998032</v>
       </c>
       <c r="C8">
-        <v>0.04161450434212605</v>
+        <v>0.03979034376431779</v>
       </c>
       <c r="D8">
-        <v>-0.07138273980202195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07974132621811784</v>
+      </c>
+      <c r="E8">
+        <v>-0.04181453717709276</v>
+      </c>
+      <c r="F8">
+        <v>-0.03075161094392652</v>
+      </c>
+      <c r="G8">
+        <v>-0.002000033392709865</v>
+      </c>
+      <c r="H8">
+        <v>0.03181174132137274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03810593755092327</v>
+        <v>0.04214191758769582</v>
       </c>
       <c r="C9">
-        <v>0.04418114396147351</v>
+        <v>0.05830818444429883</v>
       </c>
       <c r="D9">
-        <v>-0.0995865195267811</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.111302390366075</v>
+      </c>
+      <c r="E9">
+        <v>-0.04389520091364972</v>
+      </c>
+      <c r="F9">
+        <v>0.001577889164521933</v>
+      </c>
+      <c r="G9">
+        <v>-0.0317430746751716</v>
+      </c>
+      <c r="H9">
+        <v>-0.002473659201718859</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.09016753829679197</v>
+        <v>0.1249138624970944</v>
       </c>
       <c r="C10">
-        <v>-0.1915498129246396</v>
+        <v>-0.1913824595176326</v>
       </c>
       <c r="D10">
-        <v>-0.01529481389049534</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.004844183398631288</v>
+      </c>
+      <c r="E10">
+        <v>-0.05628803823593793</v>
+      </c>
+      <c r="F10">
+        <v>-0.01554815801931994</v>
+      </c>
+      <c r="G10">
+        <v>-0.03053110220801415</v>
+      </c>
+      <c r="H10">
+        <v>-0.01773832259673186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03556490104730009</v>
+        <v>0.02956530353996413</v>
       </c>
       <c r="C11">
-        <v>0.04287763287995508</v>
+        <v>0.04400107901753642</v>
       </c>
       <c r="D11">
-        <v>-0.06566881839377207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06031338455289628</v>
+      </c>
+      <c r="E11">
+        <v>-0.007351787726401646</v>
+      </c>
+      <c r="F11">
+        <v>-0.00406169507243184</v>
+      </c>
+      <c r="G11">
+        <v>-0.02933346604524588</v>
+      </c>
+      <c r="H11">
+        <v>0.04697018614717516</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04037970645934651</v>
+        <v>0.03352110387781652</v>
       </c>
       <c r="C12">
-        <v>0.04074356361909491</v>
+        <v>0.04460892108347462</v>
       </c>
       <c r="D12">
-        <v>-0.0586610099950752</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05803736050240023</v>
+      </c>
+      <c r="E12">
+        <v>-0.01928085011576247</v>
+      </c>
+      <c r="F12">
+        <v>0.001543841693665639</v>
+      </c>
+      <c r="G12">
+        <v>-0.0291157921790137</v>
+      </c>
+      <c r="H12">
+        <v>0.05476600676760708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01246264063598461</v>
+        <v>0.01921302389096418</v>
       </c>
       <c r="C13">
-        <v>0.03798561606863989</v>
+        <v>0.03975297053590895</v>
       </c>
       <c r="D13">
-        <v>-0.130739198273752</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.140283459572721</v>
+      </c>
+      <c r="E13">
+        <v>-0.07992414740541863</v>
+      </c>
+      <c r="F13">
+        <v>-0.02078029018066035</v>
+      </c>
+      <c r="G13">
+        <v>-0.03585865009454799</v>
+      </c>
+      <c r="H13">
+        <v>0.0740822567854811</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01247480371454878</v>
+        <v>0.007649600410613226</v>
       </c>
       <c r="C14">
-        <v>0.02045972089241348</v>
+        <v>0.02571844586381775</v>
       </c>
       <c r="D14">
-        <v>-0.0833440314182915</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.08615997691706634</v>
+      </c>
+      <c r="E14">
+        <v>-0.04595351491580787</v>
+      </c>
+      <c r="F14">
+        <v>0.01348342941594525</v>
+      </c>
+      <c r="G14">
+        <v>-0.03147490568285638</v>
+      </c>
+      <c r="H14">
+        <v>0.08003256825746338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001498466218433732</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.006684195090300782</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.0229366746643921</v>
+      </c>
+      <c r="E15">
+        <v>-0.004901807872164294</v>
+      </c>
+      <c r="F15">
+        <v>0.002840783183380021</v>
+      </c>
+      <c r="G15">
+        <v>0.002384909299128438</v>
+      </c>
+      <c r="H15">
+        <v>0.01218008296009165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03678049028922633</v>
+        <v>0.03078364405613135</v>
       </c>
       <c r="C16">
-        <v>0.04754612164259985</v>
+        <v>0.04683877498680708</v>
       </c>
       <c r="D16">
-        <v>-0.06725313259990758</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06359611647968723</v>
+      </c>
+      <c r="E16">
+        <v>-0.0207989364947449</v>
+      </c>
+      <c r="F16">
+        <v>0.0108743875586043</v>
+      </c>
+      <c r="G16">
+        <v>-0.02609330070418154</v>
+      </c>
+      <c r="H16">
+        <v>0.05310208143789125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01242423959461317</v>
+        <v>0.01173920700933965</v>
       </c>
       <c r="C19">
-        <v>0.03529132434050796</v>
+        <v>0.03291533538745029</v>
       </c>
       <c r="D19">
-        <v>-0.1753940272990026</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1354423529589887</v>
+      </c>
+      <c r="E19">
+        <v>-0.07236063777758804</v>
+      </c>
+      <c r="F19">
+        <v>0.02927983961720384</v>
+      </c>
+      <c r="G19">
+        <v>-0.003042115789014546</v>
+      </c>
+      <c r="H19">
+        <v>0.04981750522501922</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01851304482521405</v>
+        <v>0.01569418610780212</v>
       </c>
       <c r="C20">
-        <v>0.03619997954331197</v>
+        <v>0.03806040014712156</v>
       </c>
       <c r="D20">
-        <v>-0.09589920773575857</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.09561847339976512</v>
+      </c>
+      <c r="E20">
+        <v>-0.06367567912273095</v>
+      </c>
+      <c r="F20">
+        <v>0.00712049862049703</v>
+      </c>
+      <c r="G20">
+        <v>-0.01929411942612777</v>
+      </c>
+      <c r="H20">
+        <v>0.04429853734448413</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01126243721479868</v>
+        <v>0.01461399160776368</v>
       </c>
       <c r="C21">
-        <v>0.02524266314064197</v>
+        <v>0.03865111086001827</v>
       </c>
       <c r="D21">
-        <v>-0.1324954197529065</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1343642783565942</v>
+      </c>
+      <c r="E21">
+        <v>-0.1017959276534624</v>
+      </c>
+      <c r="F21">
+        <v>0.01593537515868437</v>
+      </c>
+      <c r="G21">
+        <v>-0.07484083478108959</v>
+      </c>
+      <c r="H21">
+        <v>0.0749067979567279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.001744280257336114</v>
+        <v>0.005707545201278877</v>
       </c>
       <c r="C22">
-        <v>0.01146953602819914</v>
+        <v>0.03480750481405646</v>
       </c>
       <c r="D22">
-        <v>-0.04772611677581833</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1136901340446541</v>
+      </c>
+      <c r="E22">
+        <v>-0.03012167768483206</v>
+      </c>
+      <c r="F22">
+        <v>-0.07279648749030992</v>
+      </c>
+      <c r="G22">
+        <v>0.05571803400027144</v>
+      </c>
+      <c r="H22">
+        <v>-0.01220496060611728</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.001696432048347608</v>
+        <v>0.005806001687542875</v>
       </c>
       <c r="C23">
-        <v>0.01129489153996146</v>
+        <v>0.03517598972154247</v>
       </c>
       <c r="D23">
-        <v>-0.04742543265245126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.112979967518618</v>
+      </c>
+      <c r="E23">
+        <v>-0.03038167933550654</v>
+      </c>
+      <c r="F23">
+        <v>-0.07275614233862972</v>
+      </c>
+      <c r="G23">
+        <v>0.05502504776910786</v>
+      </c>
+      <c r="H23">
+        <v>-0.01266752620075618</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0350495665263543</v>
+        <v>0.03194074368579647</v>
       </c>
       <c r="C24">
-        <v>0.04791476824146627</v>
+        <v>0.05436490544982933</v>
       </c>
       <c r="D24">
-        <v>-0.06710923777541372</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06710112665405141</v>
+      </c>
+      <c r="E24">
+        <v>-0.02533864984685577</v>
+      </c>
+      <c r="F24">
+        <v>0.008610845768608625</v>
+      </c>
+      <c r="G24">
+        <v>-0.04327326682771214</v>
+      </c>
+      <c r="H24">
+        <v>0.05853814269811593</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.04292393068602258</v>
+        <v>0.03699923500076384</v>
       </c>
       <c r="C25">
-        <v>0.0509125194628039</v>
+        <v>0.05330154071029514</v>
       </c>
       <c r="D25">
-        <v>-0.06643340833963314</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06175446739920736</v>
+      </c>
+      <c r="E25">
+        <v>-0.02262908575781226</v>
+      </c>
+      <c r="F25">
+        <v>-0.005545303303147327</v>
+      </c>
+      <c r="G25">
+        <v>-0.03909636697087579</v>
+      </c>
+      <c r="H25">
+        <v>0.04509824674785575</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02273388587474037</v>
+        <v>0.02036280835883313</v>
       </c>
       <c r="C26">
-        <v>0.01276746497099856</v>
+        <v>0.0193771449908541</v>
       </c>
       <c r="D26">
-        <v>-0.0582896909433403</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06582945065960873</v>
+      </c>
+      <c r="E26">
+        <v>-0.03225952323013333</v>
+      </c>
+      <c r="F26">
+        <v>0.005298779942089305</v>
+      </c>
+      <c r="G26">
+        <v>-0.01879940287182833</v>
+      </c>
+      <c r="H26">
+        <v>0.05146718481015171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1221061237336643</v>
+        <v>0.1748139643817478</v>
       </c>
       <c r="C28">
-        <v>-0.2768851638696257</v>
+        <v>-0.2557671160435632</v>
       </c>
       <c r="D28">
-        <v>0.02076382771146057</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.006986648895163816</v>
+      </c>
+      <c r="E28">
+        <v>-0.07673475926605458</v>
+      </c>
+      <c r="F28">
+        <v>-0.007263027083733784</v>
+      </c>
+      <c r="G28">
+        <v>-0.06816216850784239</v>
+      </c>
+      <c r="H28">
+        <v>-0.01465312571906355</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.006422573036198687</v>
+        <v>0.007118009080508595</v>
       </c>
       <c r="C29">
-        <v>0.01888124518754441</v>
+        <v>0.02360226850818244</v>
       </c>
       <c r="D29">
-        <v>-0.06600738935119618</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.07851897578275563</v>
+      </c>
+      <c r="E29">
+        <v>-0.05009169178373117</v>
+      </c>
+      <c r="F29">
+        <v>-0.001009450219487078</v>
+      </c>
+      <c r="G29">
+        <v>-0.04342236018649055</v>
+      </c>
+      <c r="H29">
+        <v>0.07341537472998166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04139414914892775</v>
+        <v>0.0436229908149255</v>
       </c>
       <c r="C30">
-        <v>0.03581209821982121</v>
+        <v>0.05799346365831121</v>
       </c>
       <c r="D30">
-        <v>-0.1495722254638907</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1699242331996856</v>
+      </c>
+      <c r="E30">
+        <v>-0.03163240736728456</v>
+      </c>
+      <c r="F30">
+        <v>0.001914544129719094</v>
+      </c>
+      <c r="G30">
+        <v>0.01907987409288889</v>
+      </c>
+      <c r="H30">
+        <v>0.01797372213686978</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06432772743920841</v>
+        <v>0.05856796574032284</v>
       </c>
       <c r="C31">
-        <v>0.05155482004094962</v>
+        <v>0.07133420611584536</v>
       </c>
       <c r="D31">
-        <v>-0.06583566717647983</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.05421416010891733</v>
+      </c>
+      <c r="E31">
+        <v>-0.04876006715055784</v>
+      </c>
+      <c r="F31">
+        <v>-0.03739160641926148</v>
+      </c>
+      <c r="G31">
+        <v>-0.02810577408341779</v>
+      </c>
+      <c r="H31">
+        <v>0.02157977614827389</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.002387561972676156</v>
+        <v>0.01086373136663771</v>
       </c>
       <c r="C32">
-        <v>0.003941909919455483</v>
+        <v>0.02026431714192779</v>
       </c>
       <c r="D32">
-        <v>-0.07726953708755155</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.09550173591446898</v>
+      </c>
+      <c r="E32">
+        <v>-0.09301304423276779</v>
+      </c>
+      <c r="F32">
+        <v>0.003032847839792869</v>
+      </c>
+      <c r="G32">
+        <v>-0.06961286553703767</v>
+      </c>
+      <c r="H32">
+        <v>0.0564066494427863</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02708780014808733</v>
+        <v>0.02505538657978129</v>
       </c>
       <c r="C33">
-        <v>0.03325141657791984</v>
+        <v>0.04517096127454588</v>
       </c>
       <c r="D33">
-        <v>-0.1370689610056514</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1322366390839193</v>
+      </c>
+      <c r="E33">
+        <v>-0.05552626747821628</v>
+      </c>
+      <c r="F33">
+        <v>-0.01350044470031483</v>
+      </c>
+      <c r="G33">
+        <v>-0.03370968612082304</v>
+      </c>
+      <c r="H33">
+        <v>0.05135376888566143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03538055913826622</v>
+        <v>0.03076401435117896</v>
       </c>
       <c r="C34">
-        <v>0.05878165950888729</v>
+        <v>0.06033800821856085</v>
       </c>
       <c r="D34">
-        <v>-0.06572160386662623</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.0596434616476093</v>
+      </c>
+      <c r="E34">
+        <v>-0.003294574821073671</v>
+      </c>
+      <c r="F34">
+        <v>0.006901374783608945</v>
+      </c>
+      <c r="G34">
+        <v>-0.04369127727185405</v>
+      </c>
+      <c r="H34">
+        <v>0.06172707493901985</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0004337445126786574</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0001472831423308306</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.0024494794298654</v>
+      </c>
+      <c r="E35">
+        <v>-0.0002934390903129049</v>
+      </c>
+      <c r="F35">
+        <v>-0.0002970622454681803</v>
+      </c>
+      <c r="G35">
+        <v>-0.0008549914273297097</v>
+      </c>
+      <c r="H35">
+        <v>0.002331213304031518</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01829849289380055</v>
+        <v>0.01751588175946836</v>
       </c>
       <c r="C36">
-        <v>0.008331675212581614</v>
+        <v>0.01734543199600503</v>
       </c>
       <c r="D36">
-        <v>-0.07426208054242218</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.07695171002242546</v>
+      </c>
+      <c r="E36">
+        <v>-0.04428755376911096</v>
+      </c>
+      <c r="F36">
+        <v>0.004395233009731382</v>
+      </c>
+      <c r="G36">
+        <v>-0.03066220042022502</v>
+      </c>
+      <c r="H36">
+        <v>0.04056482781231838</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02919016655857834</v>
+        <v>0.0241179279533755</v>
       </c>
       <c r="C38">
-        <v>0.02399910859851967</v>
+        <v>0.02516317681973056</v>
       </c>
       <c r="D38">
-        <v>-0.05539740170392703</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.06165111221340757</v>
+      </c>
+      <c r="E38">
+        <v>-0.04104027524413956</v>
+      </c>
+      <c r="F38">
+        <v>0.003800123085147477</v>
+      </c>
+      <c r="G38">
+        <v>0.02597317915389024</v>
+      </c>
+      <c r="H38">
+        <v>0.03520056019145465</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04454902054520919</v>
+        <v>0.03906533278019017</v>
       </c>
       <c r="C39">
-        <v>0.05770107926572089</v>
+        <v>0.06399977732340252</v>
       </c>
       <c r="D39">
-        <v>-0.08229139635879729</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.09889577263967889</v>
+      </c>
+      <c r="E39">
+        <v>-0.02190222300768511</v>
+      </c>
+      <c r="F39">
+        <v>0.02440083117335567</v>
+      </c>
+      <c r="G39">
+        <v>-0.02915500002825811</v>
+      </c>
+      <c r="H39">
+        <v>0.07466155597435939</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01625230799642906</v>
+        <v>0.0151010752054055</v>
       </c>
       <c r="C40">
-        <v>0.05176040079943715</v>
+        <v>0.04209035583665811</v>
       </c>
       <c r="D40">
-        <v>-0.08565955141088223</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.09620347766208867</v>
+      </c>
+      <c r="E40">
+        <v>-0.08800005653513902</v>
+      </c>
+      <c r="F40">
+        <v>-0.04870547386954732</v>
+      </c>
+      <c r="G40">
+        <v>-0.02176036057702748</v>
+      </c>
+      <c r="H40">
+        <v>0.13840730859348</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02353866075723013</v>
+        <v>0.0221674907034911</v>
       </c>
       <c r="C41">
-        <v>0.0001148543060047471</v>
+        <v>0.01052015701693076</v>
       </c>
       <c r="D41">
-        <v>-0.0819321358739734</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.06274516959639349</v>
+      </c>
+      <c r="E41">
+        <v>-0.05926425168334686</v>
+      </c>
+      <c r="F41">
+        <v>0.005358151966059548</v>
+      </c>
+      <c r="G41">
+        <v>-0.01607586796906666</v>
+      </c>
+      <c r="H41">
+        <v>0.03936306468747273</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.03529757587656237</v>
+        <v>0.02604318192970177</v>
       </c>
       <c r="C43">
-        <v>0.01435498374753831</v>
+        <v>0.02189061614656811</v>
       </c>
       <c r="D43">
-        <v>-0.1230700722795221</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.09405558379400776</v>
+      </c>
+      <c r="E43">
+        <v>-0.04607959665567495</v>
+      </c>
+      <c r="F43">
+        <v>-0.001484891485318075</v>
+      </c>
+      <c r="G43">
+        <v>-0.02374839672587225</v>
+      </c>
+      <c r="H43">
+        <v>0.0544767126675419</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01310890344403869</v>
+        <v>0.01758874242441312</v>
       </c>
       <c r="C44">
-        <v>0.04764142685581155</v>
+        <v>0.04324643456995147</v>
       </c>
       <c r="D44">
-        <v>-0.08030067860417749</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09344278648680096</v>
+      </c>
+      <c r="E44">
+        <v>-0.07847544909851462</v>
+      </c>
+      <c r="F44">
+        <v>0.008024456794005892</v>
+      </c>
+      <c r="G44">
+        <v>-0.03665592072292393</v>
+      </c>
+      <c r="H44">
+        <v>0.05372895127596031</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01876573233736291</v>
+        <v>0.01546592274958622</v>
       </c>
       <c r="C46">
-        <v>0.01760930707798462</v>
+        <v>0.02856501154100868</v>
       </c>
       <c r="D46">
-        <v>-0.07017761236198562</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.08166215659874333</v>
+      </c>
+      <c r="E46">
+        <v>-0.05070256148404721</v>
+      </c>
+      <c r="F46">
+        <v>0.01980609504055626</v>
+      </c>
+      <c r="G46">
+        <v>-0.05305681734947045</v>
+      </c>
+      <c r="H46">
+        <v>0.07426708468678683</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09244395595478924</v>
+        <v>0.08874071199185993</v>
       </c>
       <c r="C47">
-        <v>0.07026305095709763</v>
+        <v>0.09037505665268504</v>
       </c>
       <c r="D47">
-        <v>-0.03888979128659477</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03278950313772487</v>
+      </c>
+      <c r="E47">
+        <v>-0.04011516446723599</v>
+      </c>
+      <c r="F47">
+        <v>-0.02438872055953774</v>
+      </c>
+      <c r="G47">
+        <v>-0.05304405462613627</v>
+      </c>
+      <c r="H47">
+        <v>-0.0127356161796427</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02109456911735798</v>
+        <v>0.0192483573986902</v>
       </c>
       <c r="C48">
-        <v>0.009448265440767723</v>
+        <v>0.01946214813344964</v>
       </c>
       <c r="D48">
-        <v>-0.07517894829902218</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.07802497953522106</v>
+      </c>
+      <c r="E48">
+        <v>-0.05604602985770005</v>
+      </c>
+      <c r="F48">
+        <v>0.01805974324653663</v>
+      </c>
+      <c r="G48">
+        <v>-0.03266076011136551</v>
+      </c>
+      <c r="H48">
+        <v>0.04174683817686597</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.07536484755098513</v>
+        <v>0.06429120199442011</v>
       </c>
       <c r="C50">
-        <v>0.07432950525009896</v>
+        <v>0.07433897209861501</v>
       </c>
       <c r="D50">
-        <v>-0.06429726263138331</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05894491434289419</v>
+      </c>
+      <c r="E50">
+        <v>-0.05234685092925029</v>
+      </c>
+      <c r="F50">
+        <v>-0.04253007045454617</v>
+      </c>
+      <c r="G50">
+        <v>-0.009013660797922667</v>
+      </c>
+      <c r="H50">
+        <v>0.03439843388719034</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01156055511428073</v>
+        <v>0.009851939602567056</v>
       </c>
       <c r="C51">
-        <v>0.02874354757051219</v>
+        <v>0.02120919549234429</v>
       </c>
       <c r="D51">
-        <v>-0.09347355360604348</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.09262392575997254</v>
+      </c>
+      <c r="E51">
+        <v>-0.03591811396787586</v>
+      </c>
+      <c r="F51">
+        <v>0.007002421297021786</v>
+      </c>
+      <c r="G51">
+        <v>-0.01732124648094995</v>
+      </c>
+      <c r="H51">
+        <v>0.07322388765095154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.07902828020697016</v>
+        <v>0.09157150942881809</v>
       </c>
       <c r="C53">
-        <v>0.07904605163163446</v>
+        <v>0.09591727037700315</v>
       </c>
       <c r="D53">
-        <v>-0.01738087413768319</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.0005556373641504243</v>
+      </c>
+      <c r="E53">
+        <v>-0.1022300365136518</v>
+      </c>
+      <c r="F53">
+        <v>-0.02523839464534614</v>
+      </c>
+      <c r="G53">
+        <v>-0.07442678140058155</v>
+      </c>
+      <c r="H53">
+        <v>-0.06010691174634553</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.03396840710355694</v>
+        <v>0.02744751599950893</v>
       </c>
       <c r="C54">
-        <v>0.02822446208734145</v>
+        <v>0.03503761947185198</v>
       </c>
       <c r="D54">
-        <v>-0.08141353110230246</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.08784240453214592</v>
+      </c>
+      <c r="E54">
+        <v>-0.05236558247897075</v>
+      </c>
+      <c r="F54">
+        <v>0.02163774102725925</v>
+      </c>
+      <c r="G54">
+        <v>-0.0350627469519162</v>
+      </c>
+      <c r="H54">
+        <v>0.0989865199868452</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08548785273538451</v>
+        <v>0.08796127747939318</v>
       </c>
       <c r="C55">
-        <v>0.06351300416730503</v>
+        <v>0.08054209121454693</v>
       </c>
       <c r="D55">
-        <v>-0.004788406235545353</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01235587186117898</v>
+      </c>
+      <c r="E55">
+        <v>-0.06437384388151954</v>
+      </c>
+      <c r="F55">
+        <v>-0.03208387390533627</v>
+      </c>
+      <c r="G55">
+        <v>-0.02605787817190709</v>
+      </c>
+      <c r="H55">
+        <v>-0.03814366988110394</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1393383761281843</v>
+        <v>0.1406205650066224</v>
       </c>
       <c r="C56">
-        <v>0.08914520074055914</v>
+        <v>0.1173210393347207</v>
       </c>
       <c r="D56">
-        <v>-0.002491330483096183</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01876692648305438</v>
+      </c>
+      <c r="E56">
+        <v>-0.05597649214579323</v>
+      </c>
+      <c r="F56">
+        <v>-0.01605951197108832</v>
+      </c>
+      <c r="G56">
+        <v>-0.04381006105053455</v>
+      </c>
+      <c r="H56">
+        <v>-0.04894594616951853</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.04116098318562389</v>
+        <v>0.04006159472894605</v>
       </c>
       <c r="C58">
-        <v>-0.006378826699866522</v>
+        <v>0.02447743754964362</v>
       </c>
       <c r="D58">
-        <v>-0.4368664212304156</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3760593970578018</v>
+      </c>
+      <c r="E58">
+        <v>-0.2153210244621518</v>
+      </c>
+      <c r="F58">
+        <v>-0.1063314617758835</v>
+      </c>
+      <c r="G58">
+        <v>0.4645413618134461</v>
+      </c>
+      <c r="H58">
+        <v>-0.258874229101016</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1355173490652565</v>
+        <v>0.16352518812935</v>
       </c>
       <c r="C59">
-        <v>-0.2050838386603631</v>
+        <v>-0.1789414870226082</v>
       </c>
       <c r="D59">
-        <v>-0.02512164319170982</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.04312632332384975</v>
+      </c>
+      <c r="E59">
+        <v>-0.01420903105906939</v>
+      </c>
+      <c r="F59">
+        <v>0.03052616376093305</v>
+      </c>
+      <c r="G59">
+        <v>0.01509314604020376</v>
+      </c>
+      <c r="H59">
+        <v>-0.01561482573587808</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2564105892547835</v>
+        <v>0.2346470414050559</v>
       </c>
       <c r="C60">
-        <v>0.08562741849349682</v>
+        <v>0.09915700130479688</v>
       </c>
       <c r="D60">
-        <v>-0.1025162793931784</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1213635863356129</v>
+      </c>
+      <c r="E60">
+        <v>0.3614888105671377</v>
+      </c>
+      <c r="F60">
+        <v>-0.1014968917632647</v>
+      </c>
+      <c r="G60">
+        <v>0.02618964228841817</v>
+      </c>
+      <c r="H60">
+        <v>-0.06173209607925326</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04773096287126082</v>
+        <v>0.04222138173145893</v>
       </c>
       <c r="C61">
-        <v>0.05047352445016738</v>
+        <v>0.05675053729591886</v>
       </c>
       <c r="D61">
-        <v>-0.09355111757485665</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09110625150507677</v>
+      </c>
+      <c r="E61">
+        <v>-0.02053474478833699</v>
+      </c>
+      <c r="F61">
+        <v>0.01345713440822859</v>
+      </c>
+      <c r="G61">
+        <v>-0.04250017619387014</v>
+      </c>
+      <c r="H61">
+        <v>0.06187302451775899</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01479071644007725</v>
+        <v>0.01559049642052125</v>
       </c>
       <c r="C63">
-        <v>0.01912592850816711</v>
+        <v>0.02797896116964069</v>
       </c>
       <c r="D63">
-        <v>-0.05676980560733837</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06957500700537031</v>
+      </c>
+      <c r="E63">
+        <v>-0.05410700903522011</v>
+      </c>
+      <c r="F63">
+        <v>-0.02241943637097698</v>
+      </c>
+      <c r="G63">
+        <v>-0.01462653528771356</v>
+      </c>
+      <c r="H63">
+        <v>0.03560102039761952</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05497119973275526</v>
+        <v>0.05594353320905265</v>
       </c>
       <c r="C64">
-        <v>0.05274943568554172</v>
+        <v>0.07079401638046932</v>
       </c>
       <c r="D64">
-        <v>-0.06260203690716437</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05155738822913107</v>
+      </c>
+      <c r="E64">
+        <v>-0.04305964164964689</v>
+      </c>
+      <c r="F64">
+        <v>0.02531438180641627</v>
+      </c>
+      <c r="G64">
+        <v>-0.06799238582966748</v>
+      </c>
+      <c r="H64">
+        <v>0.02076862847098881</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.06028024624642777</v>
+        <v>0.05306857860285955</v>
       </c>
       <c r="C65">
-        <v>0.01768017268970322</v>
+        <v>0.02616699394499579</v>
       </c>
       <c r="D65">
-        <v>-0.1047662602049822</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1121910028798118</v>
+      </c>
+      <c r="E65">
+        <v>-0.0126328669317062</v>
+      </c>
+      <c r="F65">
+        <v>-0.02469113110187242</v>
+      </c>
+      <c r="G65">
+        <v>0.0514028625334452</v>
+      </c>
+      <c r="H65">
+        <v>-0.01557973258977562</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04821283223637551</v>
+        <v>0.04596088343318076</v>
       </c>
       <c r="C66">
-        <v>0.05750002798006269</v>
+        <v>0.07044656703090409</v>
       </c>
       <c r="D66">
-        <v>-0.1109783282838582</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1234017096880025</v>
+      </c>
+      <c r="E66">
+        <v>-0.02272300947475319</v>
+      </c>
+      <c r="F66">
+        <v>0.01421598747543142</v>
+      </c>
+      <c r="G66">
+        <v>-0.01811749331282477</v>
+      </c>
+      <c r="H66">
+        <v>0.05574478699884781</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.05009633185810839</v>
+        <v>0.04128035291651375</v>
       </c>
       <c r="C67">
-        <v>0.02736063934218637</v>
+        <v>0.02853773153404512</v>
       </c>
       <c r="D67">
-        <v>-0.02772770763511984</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.02549544553807695</v>
+      </c>
+      <c r="E67">
+        <v>-0.02207100366846421</v>
+      </c>
+      <c r="F67">
+        <v>-0.001646175700717563</v>
+      </c>
+      <c r="G67">
+        <v>0.01703229628974564</v>
+      </c>
+      <c r="H67">
+        <v>0.03265980772441455</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1520392774866945</v>
+        <v>0.179178772578501</v>
       </c>
       <c r="C68">
-        <v>-0.2845473138749364</v>
+        <v>-0.2289575526989689</v>
       </c>
       <c r="D68">
-        <v>0.02645108228566024</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.005556981794342981</v>
+      </c>
+      <c r="E68">
+        <v>-0.05133188608514522</v>
+      </c>
+      <c r="F68">
+        <v>-0.02486323305798922</v>
+      </c>
+      <c r="G68">
+        <v>0.006145321655963573</v>
+      </c>
+      <c r="H68">
+        <v>-0.001998488331016953</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08829384472999298</v>
+        <v>0.08150909434438944</v>
       </c>
       <c r="C69">
-        <v>0.08083135838679989</v>
+        <v>0.09974816871133038</v>
       </c>
       <c r="D69">
-        <v>-0.04610649067190151</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04602437262368942</v>
+      </c>
+      <c r="E69">
+        <v>-0.03378205196172889</v>
+      </c>
+      <c r="F69">
+        <v>-0.00106562044790108</v>
+      </c>
+      <c r="G69">
+        <v>-0.05305503156427574</v>
+      </c>
+      <c r="H69">
+        <v>0.007231674640647822</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1297551018953723</v>
+        <v>0.167480115236348</v>
       </c>
       <c r="C71">
-        <v>-0.2560187671371834</v>
+        <v>-0.2269385663876629</v>
       </c>
       <c r="D71">
-        <v>-0.0356611051158067</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03992817281753381</v>
+      </c>
+      <c r="E71">
+        <v>-0.05323235877341651</v>
+      </c>
+      <c r="F71">
+        <v>-0.0208015277759626</v>
+      </c>
+      <c r="G71">
+        <v>-0.04237106406584787</v>
+      </c>
+      <c r="H71">
+        <v>0.008898689110443439</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.097714722291064</v>
+        <v>0.102457848141947</v>
       </c>
       <c r="C72">
-        <v>0.04682046557003448</v>
+        <v>0.06168368414197749</v>
       </c>
       <c r="D72">
-        <v>-0.07892850299418191</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.08982216503357592</v>
+      </c>
+      <c r="E72">
+        <v>0.01604686440474771</v>
+      </c>
+      <c r="F72">
+        <v>-0.02739745930628711</v>
+      </c>
+      <c r="G72">
+        <v>-0.053037329417498</v>
+      </c>
+      <c r="H72">
+        <v>0.01588220148203999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.3150275147089006</v>
+        <v>0.2766934903509487</v>
       </c>
       <c r="C73">
-        <v>0.03397124119173857</v>
+        <v>0.07060086085120015</v>
       </c>
       <c r="D73">
-        <v>-0.1814313788050016</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.1966592738106337</v>
+      </c>
+      <c r="E73">
+        <v>0.6635521668976907</v>
+      </c>
+      <c r="F73">
+        <v>-0.1092162296785912</v>
+      </c>
+      <c r="G73">
+        <v>0.06769565103789286</v>
+      </c>
+      <c r="H73">
+        <v>-0.08376230594029337</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1050288375565566</v>
+        <v>0.1055766749446055</v>
       </c>
       <c r="C74">
-        <v>0.07864984129878839</v>
+        <v>0.09249571346183902</v>
       </c>
       <c r="D74">
-        <v>-0.03688927764314526</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.001489551258163049</v>
+      </c>
+      <c r="E74">
+        <v>-0.07847248523279594</v>
+      </c>
+      <c r="F74">
+        <v>-0.04384982019767914</v>
+      </c>
+      <c r="G74">
+        <v>-0.0331794521868112</v>
+      </c>
+      <c r="H74">
+        <v>-0.07551109221389384</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2508102294705355</v>
+        <v>0.2459879855112618</v>
       </c>
       <c r="C75">
-        <v>0.1066891226481203</v>
+        <v>0.1494769977860596</v>
       </c>
       <c r="D75">
-        <v>0.07734722842697808</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1228910202989408</v>
+      </c>
+      <c r="E75">
+        <v>-0.07183004693941313</v>
+      </c>
+      <c r="F75">
+        <v>0.02127199136386302</v>
+      </c>
+      <c r="G75">
+        <v>-0.01808669117075612</v>
+      </c>
+      <c r="H75">
+        <v>-0.1719907480494652</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1200577501052486</v>
+        <v>0.126561114286688</v>
       </c>
       <c r="C76">
-        <v>0.0871728449613739</v>
+        <v>0.1081323769256875</v>
       </c>
       <c r="D76">
-        <v>-0.002588675418817491</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.02375165795489459</v>
+      </c>
+      <c r="E76">
+        <v>-0.1182902317620414</v>
+      </c>
+      <c r="F76">
+        <v>-0.01131186788354945</v>
+      </c>
+      <c r="G76">
+        <v>-0.04921746799062238</v>
+      </c>
+      <c r="H76">
+        <v>-0.04297178302187579</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.08291910651552531</v>
+        <v>0.06955265161761698</v>
       </c>
       <c r="C77">
-        <v>0.02064059680236268</v>
+        <v>0.06867654751708969</v>
       </c>
       <c r="D77">
-        <v>-0.1108799384107119</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.11518882169332</v>
+      </c>
+      <c r="E77">
+        <v>-0.09862279169134967</v>
+      </c>
+      <c r="F77">
+        <v>0.2963738391466298</v>
+      </c>
+      <c r="G77">
+        <v>0.1682286845635377</v>
+      </c>
+      <c r="H77">
+        <v>-0.09936545540359376</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03570228404013207</v>
+        <v>0.04202583790769261</v>
       </c>
       <c r="C78">
-        <v>0.04223152057667853</v>
+        <v>0.05979043370539117</v>
       </c>
       <c r="D78">
-        <v>-0.09140552997461197</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1180028769080636</v>
+      </c>
+      <c r="E78">
+        <v>-0.031471055726536</v>
+      </c>
+      <c r="F78">
+        <v>-0.01511587285697489</v>
+      </c>
+      <c r="G78">
+        <v>-0.03909553601922301</v>
+      </c>
+      <c r="H78">
+        <v>0.02243259890280159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.002794196080771007</v>
+        <v>0.04060927617950841</v>
       </c>
       <c r="C79">
-        <v>-0.002805938480275715</v>
+        <v>0.07190278732700135</v>
       </c>
       <c r="D79">
-        <v>-0.01482614474529094</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05187399313097582</v>
+      </c>
+      <c r="E79">
+        <v>-0.1563740192258123</v>
+      </c>
+      <c r="F79">
+        <v>-0.07090147894813163</v>
+      </c>
+      <c r="G79">
+        <v>-0.3527701729746979</v>
+      </c>
+      <c r="H79">
+        <v>-0.6828471471818235</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03475415625373736</v>
+        <v>0.02789550545166937</v>
       </c>
       <c r="C80">
-        <v>0.02025871076325937</v>
+        <v>0.03780812332832541</v>
       </c>
       <c r="D80">
-        <v>-0.03631962589440813</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03444677865550702</v>
+      </c>
+      <c r="E80">
+        <v>-0.01011128731053623</v>
+      </c>
+      <c r="F80">
+        <v>0.0396226199182723</v>
+      </c>
+      <c r="G80">
+        <v>0.02858517331931238</v>
+      </c>
+      <c r="H80">
+        <v>0.04055166630856281</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1465235327527551</v>
+        <v>0.1343973380875193</v>
       </c>
       <c r="C81">
-        <v>0.07912148033333205</v>
+        <v>0.1089284550020114</v>
       </c>
       <c r="D81">
-        <v>0.03533977823504138</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07534113707355067</v>
+      </c>
+      <c r="E81">
+        <v>-0.1087540657908865</v>
+      </c>
+      <c r="F81">
+        <v>0.0009975843290477642</v>
+      </c>
+      <c r="G81">
+        <v>-0.03421513616416465</v>
+      </c>
+      <c r="H81">
+        <v>-0.06909390671481135</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2791036577519698</v>
+        <v>0.2491695936091644</v>
       </c>
       <c r="C82">
-        <v>0.2111417041483263</v>
+        <v>0.2202013910851931</v>
       </c>
       <c r="D82">
-        <v>0.2473032812044218</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2403488748901926</v>
+      </c>
+      <c r="E82">
+        <v>0.007778909704823159</v>
+      </c>
+      <c r="F82">
+        <v>-0.02745946815264831</v>
+      </c>
+      <c r="G82">
+        <v>-0.4202950645476032</v>
+      </c>
+      <c r="H82">
+        <v>0.3838402364305913</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.04103683962714801</v>
+        <v>0.02654348893950193</v>
       </c>
       <c r="C83">
-        <v>0.03715452931659627</v>
+        <v>0.04955993645314015</v>
       </c>
       <c r="D83">
-        <v>-0.07233007567809205</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.0517859890093982</v>
+      </c>
+      <c r="E83">
+        <v>-0.003828379873160826</v>
+      </c>
+      <c r="F83">
+        <v>0.02513447839690071</v>
+      </c>
+      <c r="G83">
+        <v>-0.003716968662658584</v>
+      </c>
+      <c r="H83">
+        <v>0.02745726102372921</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0005008139189671548</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.002442011293227135</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.006205517082326229</v>
+      </c>
+      <c r="E84">
+        <v>-0.01060121399579594</v>
+      </c>
+      <c r="F84">
+        <v>-0.00425484702446203</v>
+      </c>
+      <c r="G84">
+        <v>0.004606684035043751</v>
+      </c>
+      <c r="H84">
+        <v>0.007222533751392514</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1879726045702841</v>
+        <v>0.1715867697891187</v>
       </c>
       <c r="C85">
-        <v>0.07385657657097744</v>
+        <v>0.1116858519983676</v>
       </c>
       <c r="D85">
-        <v>0.0694829319024311</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.09152878916844567</v>
+      </c>
+      <c r="E85">
+        <v>-0.03710617614389009</v>
+      </c>
+      <c r="F85">
+        <v>-0.02227873970030793</v>
+      </c>
+      <c r="G85">
+        <v>-0.05965124042367043</v>
+      </c>
+      <c r="H85">
+        <v>-0.1620918727386265</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01519803753177023</v>
+        <v>0.02052539587597811</v>
       </c>
       <c r="C86">
-        <v>0.02094209066320566</v>
+        <v>0.01706887116222907</v>
       </c>
       <c r="D86">
-        <v>-0.1336989005741518</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.120988406306961</v>
+      </c>
+      <c r="E86">
+        <v>-0.02646138699775249</v>
+      </c>
+      <c r="F86">
+        <v>0.01167126039669034</v>
+      </c>
+      <c r="G86">
+        <v>-0.04374271778808403</v>
+      </c>
+      <c r="H86">
+        <v>0.06204041711490745</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03054539108057701</v>
+        <v>0.03425544492646185</v>
       </c>
       <c r="C87">
-        <v>0.007563477576907362</v>
+        <v>0.02742345062673278</v>
       </c>
       <c r="D87">
-        <v>-0.1138858664243989</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1336661955667168</v>
+      </c>
+      <c r="E87">
+        <v>-0.09308711060039028</v>
+      </c>
+      <c r="F87">
+        <v>0.02954482319606477</v>
+      </c>
+      <c r="G87">
+        <v>-0.00684820080269811</v>
+      </c>
+      <c r="H87">
+        <v>0.02868753940310225</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.08734324554073254</v>
+        <v>0.07685161859323467</v>
       </c>
       <c r="C88">
-        <v>0.06690068649656897</v>
+        <v>0.06749860856427803</v>
       </c>
       <c r="D88">
-        <v>-0.07271371802423386</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04307170907359784</v>
+      </c>
+      <c r="E88">
+        <v>-0.04092596213277826</v>
+      </c>
+      <c r="F88">
+        <v>0.009591616823450382</v>
+      </c>
+      <c r="G88">
+        <v>-0.02638180440639067</v>
+      </c>
+      <c r="H88">
+        <v>0.0233608426827625</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2011121353414286</v>
+        <v>0.2526373977796917</v>
       </c>
       <c r="C89">
-        <v>-0.3683259174785962</v>
+        <v>-0.3589139398345703</v>
       </c>
       <c r="D89">
-        <v>0.02298904373713108</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.003628337154326726</v>
+      </c>
+      <c r="E89">
+        <v>-0.07744382407522862</v>
+      </c>
+      <c r="F89">
+        <v>0.04850387026739067</v>
+      </c>
+      <c r="G89">
+        <v>-0.03403239032728836</v>
+      </c>
+      <c r="H89">
+        <v>0.02727000877348873</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1917269951239558</v>
+        <v>0.2265085317040287</v>
       </c>
       <c r="C90">
-        <v>-0.3048065996466753</v>
+        <v>-0.2760134044219328</v>
       </c>
       <c r="D90">
-        <v>0.01487967617123166</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01737894949077776</v>
+      </c>
+      <c r="E90">
+        <v>-0.05327818050080061</v>
+      </c>
+      <c r="F90">
+        <v>0.001427080995961149</v>
+      </c>
+      <c r="G90">
+        <v>0.009659114075199652</v>
+      </c>
+      <c r="H90">
+        <v>0.06210973907396306</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.186062290161231</v>
+        <v>0.1743958201717398</v>
       </c>
       <c r="C91">
-        <v>0.1471681288180676</v>
+        <v>0.1636079815518063</v>
       </c>
       <c r="D91">
-        <v>0.04241895058259552</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08359704066237107</v>
+      </c>
+      <c r="E91">
+        <v>-0.09630762864629071</v>
+      </c>
+      <c r="F91">
+        <v>-0.01978406587785899</v>
+      </c>
+      <c r="G91">
+        <v>-0.02778559538559668</v>
+      </c>
+      <c r="H91">
+        <v>-0.1545175298969619</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1677334878641975</v>
+        <v>0.2038575231411198</v>
       </c>
       <c r="C92">
-        <v>-0.283710972026513</v>
+        <v>-0.2829945455947116</v>
       </c>
       <c r="D92">
-        <v>-0.05010717048718532</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.02102686576619883</v>
+      </c>
+      <c r="E92">
+        <v>-0.06762093204730153</v>
+      </c>
+      <c r="F92">
+        <v>0.04148791291520226</v>
+      </c>
+      <c r="G92">
+        <v>-0.02267065271113702</v>
+      </c>
+      <c r="H92">
+        <v>0.02471883090364679</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2159397411499749</v>
+        <v>0.2475626338670607</v>
       </c>
       <c r="C93">
-        <v>-0.324096209988511</v>
+        <v>-0.2915226410722097</v>
       </c>
       <c r="D93">
-        <v>-0.005261323675757515</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.002167576830890256</v>
+      </c>
+      <c r="E93">
+        <v>-0.03491794661120107</v>
+      </c>
+      <c r="F93">
+        <v>-0.03227855795052948</v>
+      </c>
+      <c r="G93">
+        <v>-0.02376010879404762</v>
+      </c>
+      <c r="H93">
+        <v>0.01214125580448647</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.394804527725207</v>
+        <v>0.3445827183848736</v>
       </c>
       <c r="C94">
-        <v>0.2334837748582142</v>
+        <v>0.2375189638415273</v>
       </c>
       <c r="D94">
-        <v>0.4473728007042133</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4382493295409331</v>
+      </c>
+      <c r="E94">
+        <v>-0.1297511432783358</v>
+      </c>
+      <c r="F94">
+        <v>0.0240363393785819</v>
+      </c>
+      <c r="G94">
+        <v>0.582500524406262</v>
+      </c>
+      <c r="H94">
+        <v>0.1594259349034883</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.09802773817561797</v>
+        <v>0.07504403421222919</v>
       </c>
       <c r="C95">
-        <v>-0.0006166700395351664</v>
+        <v>0.0478911796871014</v>
       </c>
       <c r="D95">
-        <v>-0.06926226021762845</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.07508519153149192</v>
+      </c>
+      <c r="E95">
+        <v>0.1309629983146389</v>
+      </c>
+      <c r="F95">
+        <v>0.905878570729243</v>
+      </c>
+      <c r="G95">
+        <v>-0.0399344892796934</v>
+      </c>
+      <c r="H95">
+        <v>-0.08243649710775897</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1743487050296485</v>
+        <v>0.1701546996888813</v>
       </c>
       <c r="C98">
-        <v>0.03319768639376628</v>
+        <v>0.05747068545544833</v>
       </c>
       <c r="D98">
-        <v>-0.1197795281220882</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1360611277847543</v>
+      </c>
+      <c r="E98">
+        <v>0.2848662709802949</v>
+      </c>
+      <c r="F98">
+        <v>-0.0946805306907274</v>
+      </c>
+      <c r="G98">
+        <v>-0.007939408974839499</v>
+      </c>
+      <c r="H98">
+        <v>-0.02011088144335932</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.006286706448182138</v>
+        <v>0.007279577874358137</v>
       </c>
       <c r="C101">
-        <v>0.01819397297224144</v>
+        <v>0.02268546507401101</v>
       </c>
       <c r="D101">
-        <v>-0.06584850191519703</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.07849924673417399</v>
+      </c>
+      <c r="E101">
+        <v>-0.05105506458285501</v>
+      </c>
+      <c r="F101">
+        <v>5.571105532591538e-07</v>
+      </c>
+      <c r="G101">
+        <v>-0.04399732523301153</v>
+      </c>
+      <c r="H101">
+        <v>0.0731895524110048</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1294639800504725</v>
+        <v>0.1173407366137199</v>
       </c>
       <c r="C102">
-        <v>0.09236811406926389</v>
+        <v>0.1157606905519576</v>
       </c>
       <c r="D102">
-        <v>0.03279134567951215</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05422738846196389</v>
+      </c>
+      <c r="E102">
+        <v>-0.02906914261759963</v>
+      </c>
+      <c r="F102">
+        <v>0.01721699100773412</v>
+      </c>
+      <c r="G102">
+        <v>-0.04850624553049671</v>
+      </c>
+      <c r="H102">
+        <v>-0.01140897301170555</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
